--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="37" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="135">
   <si>
     <t>STT</t>
   </si>
@@ -249,9 +249,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>MCH, NCFW</t>
-  </si>
-  <si>
     <t>TG102SE</t>
   </si>
   <si>
@@ -430,6 +427,24 @@
   </si>
   <si>
     <t>Khách không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>0000000125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID mới : 2111033</t>
+  </si>
+  <si>
+    <t>TB lỗi nguồn</t>
+  </si>
+  <si>
+    <t>ĐM</t>
   </si>
 </sst>
 </file>
@@ -632,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -844,22 +859,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,6 +884,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C11"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="A10:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1228,43 +1246,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1309,58 +1327,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1385,23 +1403,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,7 +1433,7 @@
         <v>44511</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="39">
         <v>866192037793575</v>
@@ -1426,17 +1444,17 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -1449,13 +1467,13 @@
         <v>66</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1474,7 +1492,7 @@
         <v>44511</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="39">
         <v>866192037816137</v>
@@ -1485,19 +1503,19 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>75</v>
-      </c>
       <c r="L7" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -1516,7 +1534,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1533,7 +1551,7 @@
         <v>44511</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="39">
         <v>864811036952096</v>
@@ -1544,23 +1562,23 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
@@ -1573,7 +1591,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1590,7 +1608,7 @@
         <v>44511</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="39">
         <v>863586032865788</v>
@@ -1602,16 +1620,16 @@
       <c r="H9" s="1"/>
       <c r="I9" s="50"/>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>62</v>
@@ -1624,7 +1642,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1641,7 +1659,7 @@
         <v>44511</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="39">
         <v>866192037780515</v>
@@ -1652,19 +1670,19 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
@@ -1683,7 +1701,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>44511</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39">
         <v>866192037788401</v>
@@ -1711,19 +1729,19 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -1742,7 +1760,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1789,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1802,7 +1820,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1831,7 +1849,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +1878,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1889,7 +1907,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3120,6 +3138,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3131,13 +3156,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3148,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3181,43 +3199,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3262,58 +3280,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3338,23 +3356,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3364,12 +3382,14 @@
       <c r="B6" s="37">
         <v>44508</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44511</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
@@ -3380,7 +3400,9 @@
       <c r="J6" s="40"/>
       <c r="K6" s="70"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -3389,16 +3411,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3413,41 +3433,47 @@
       <c r="B7" s="37">
         <v>44508</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44511</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>73</v>
+      <c r="E7" s="71" t="s">
+        <v>131</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="K7" s="70"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3476,7 +3502,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3505,7 +3531,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3534,7 +3560,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3563,7 +3589,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3592,7 +3618,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3623,7 +3649,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3652,7 +3678,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3681,7 +3707,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3710,7 +3736,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3829,7 +3855,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3861,7 +3887,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3893,7 +3919,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4106,7 +4132,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -4170,7 +4196,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4202,7 +4228,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4298,7 +4324,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4330,7 +4356,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4362,7 +4388,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4941,6 +4967,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4952,13 +4985,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5002,43 +5028,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5083,58 +5109,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5159,23 +5185,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5200,16 +5226,16 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="40" t="s">
-        <v>109</v>
-      </c>
       <c r="K6" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>38</v>
@@ -5229,7 +5255,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5260,16 +5286,16 @@
       <c r="H7" s="38"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
@@ -5282,7 +5308,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5310,14 +5336,14 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>38</v>
@@ -5337,7 +5363,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5365,17 +5391,17 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="40" t="s">
@@ -5392,7 +5418,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5419,17 +5445,17 @@
         <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>38</v>
@@ -5449,7 +5475,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5477,14 +5503,14 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>38</v>
@@ -5504,7 +5530,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5532,14 +5558,14 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>38</v>
@@ -5559,7 +5585,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5589,14 +5615,14 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>38</v>
@@ -5616,7 +5642,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5644,19 +5670,19 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
@@ -5673,7 +5699,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5701,17 +5727,17 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="40" t="s">
@@ -5728,7 +5754,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5756,14 +5782,14 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>38</v>
@@ -5783,7 +5809,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5811,17 +5837,17 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="40" t="s">
@@ -5864,23 +5890,23 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>62</v>
@@ -5919,19 +5945,19 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="40" t="s">
@@ -5978,14 +6004,14 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>38</v>
@@ -6036,17 +6062,17 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="40" t="s">
@@ -6094,17 +6120,17 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="40" t="s">
@@ -6152,14 +6178,14 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>38</v>
@@ -6205,14 +6231,14 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>38</v>
@@ -6258,19 +6284,19 @@
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="40" t="s">
@@ -6317,17 +6343,17 @@
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="40" t="s">
@@ -6375,17 +6401,17 @@
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="40" t="s">
@@ -6433,14 +6459,14 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>38</v>
@@ -7332,13 +7358,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7350,6 +7369,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7393,43 +7419,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7474,58 +7500,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7550,23 +7576,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7580,7 +7606,7 @@
         <v>44511</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39">
         <v>861694030648560</v>
@@ -7591,15 +7617,15 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -7616,7 +7642,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7635,7 +7661,7 @@
         <v>44511</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="39">
         <v>861694031746595</v>
@@ -7646,21 +7672,21 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
@@ -7673,7 +7699,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7690,7 +7716,7 @@
         <v>44511</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="39">
         <v>863586034530992</v>
@@ -7701,17 +7727,17 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N8" s="1">
         <v>24000</v>
@@ -7726,11 +7752,11 @@
         <v>66</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7759,7 +7785,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7788,7 +7814,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7817,7 +7843,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7846,7 +7872,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7877,7 +7903,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7906,7 +7932,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7935,7 +7961,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7964,7 +7990,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9195,6 +9221,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9206,13 +9239,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9256,43 +9282,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9337,58 +9363,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9413,23 +9439,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9455,7 +9481,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9486,7 +9512,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9515,7 +9541,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9544,7 +9570,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9573,7 +9599,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9602,7 +9628,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9631,7 +9657,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9662,7 +9688,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9691,7 +9717,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9720,7 +9746,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9749,7 +9775,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10980,6 +11006,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10991,13 +11024,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>ĐM</t>
+  </si>
+  <si>
+    <t>TB bị cắt ngắn</t>
   </si>
 </sst>
 </file>
@@ -862,7 +865,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,21 +902,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,7 +1217,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="A10:H16"/>
+      <selection activeCell="B13" sqref="B13:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1246,43 +1249,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1327,58 +1330,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1403,23 +1406,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,7 +1476,7 @@
         <v>68</v>
       </c>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1534,7 +1537,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1594,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1645,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1770,12 +1773,20 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="37">
+        <v>44526</v>
+      </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="D12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868345031040587</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60"/>
       <c r="J12" s="1"/>
@@ -1789,7 +1800,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1801,12 +1812,20 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="37">
+        <v>44526</v>
+      </c>
       <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="39">
+        <v>864811037219727</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
       <c r="J13" s="1"/>
@@ -1820,7 +1839,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1830,12 +1849,20 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="37">
+        <v>44526</v>
+      </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="39">
+        <v>864811036966617</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="50"/>
       <c r="J14" s="1"/>
@@ -1849,7 +1876,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1859,12 +1886,20 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="37">
+        <v>44526</v>
+      </c>
       <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868926033920858</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="50"/>
       <c r="J15" s="1"/>
@@ -1878,7 +1913,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1888,12 +1923,20 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="37">
+        <v>44526</v>
+      </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866192037755996</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="60"/>
       <c r="J16" s="1"/>
@@ -1907,7 +1950,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1917,12 +1960,20 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="37">
+        <v>44526</v>
+      </c>
       <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="39">
+        <v>864811037212714</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="60"/>
       <c r="J17" s="40"/>
@@ -1944,12 +1995,20 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="37">
+        <v>44526</v>
+      </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39">
+        <v>864811036952096</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="60"/>
       <c r="J18" s="1"/>
@@ -1971,12 +2030,20 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="37">
+        <v>44526</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="38"/>
+      <c r="D19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="39">
+        <v>863586032865788</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="60"/>
       <c r="J19" s="1"/>
@@ -3138,13 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3156,6 +3216,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3166,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3199,43 +3266,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3280,58 +3347,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3356,23 +3423,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3418,7 +3485,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3473,7 +3540,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3483,26 +3550,44 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44526</v>
+      </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38"/>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3531,7 +3616,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3560,7 +3645,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3589,7 +3674,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3618,7 +3703,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3649,7 +3734,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3678,7 +3763,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3707,7 +3792,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3736,7 +3821,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3887,7 +3972,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4196,7 +4281,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4388,7 +4473,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4506,7 +4591,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4967,13 +5052,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4985,6 +5063,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4995,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5028,43 +5113,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5109,58 +5194,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -5185,23 +5270,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="86"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5255,7 +5340,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="66"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5308,7 +5393,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="66"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5363,7 +5448,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="66"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5418,7 +5503,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5475,7 +5560,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5530,7 +5615,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5585,7 +5670,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5642,7 +5727,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5699,7 +5784,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5754,7 +5839,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5809,7 +5894,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6499,12 +6584,20 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9">
+        <v>44526</v>
+      </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183034546965</v>
+      </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="60"/>
       <c r="J29" s="1"/>
@@ -6531,12 +6624,20 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9">
+        <v>44526</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183034626239</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="60"/>
       <c r="J30" s="1"/>
@@ -6563,12 +6664,20 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>44526</v>
+      </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183038092636</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="60"/>
       <c r="J31" s="1"/>
@@ -6595,12 +6704,20 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9">
+        <v>44526</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>867717030615950</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="60"/>
       <c r="J32" s="1"/>
@@ -6627,12 +6744,20 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9">
+        <v>44526</v>
+      </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868183034687280</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="60"/>
       <c r="J33" s="1"/>
@@ -6659,12 +6784,20 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9">
+        <v>44526</v>
+      </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868183038520123</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="60"/>
       <c r="J34" s="1"/>
@@ -6691,12 +6824,20 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9">
+        <v>44526</v>
+      </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183034756531</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="60"/>
       <c r="J35" s="1"/>
@@ -6723,12 +6864,20 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9">
+        <v>44526</v>
+      </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183035856017</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="60"/>
       <c r="J36" s="1"/>
@@ -6755,12 +6904,20 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9">
+        <v>44526</v>
+      </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>868183033867255</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="60"/>
       <c r="J37" s="1"/>
@@ -6787,12 +6944,20 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9">
+        <v>44526</v>
+      </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>867717030506217</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="60"/>
       <c r="J38" s="1"/>
@@ -6814,12 +6979,20 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9">
+        <v>44526</v>
+      </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>868183038007048</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="60"/>
       <c r="J39" s="1"/>
@@ -6841,12 +7014,20 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9">
+        <v>44526</v>
+      </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>868183034703632</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="60"/>
       <c r="J40" s="1"/>
@@ -6873,12 +7054,20 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9">
+        <v>44526</v>
+      </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>868183034636931</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="60"/>
       <c r="J41" s="1"/>
@@ -6905,12 +7094,20 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9">
+        <v>44526</v>
+      </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>867717030430442</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="60"/>
       <c r="J42" s="1"/>
@@ -6932,12 +7129,20 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9">
+        <v>44526</v>
+      </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>868183038030826</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="60"/>
       <c r="J43" s="1"/>
@@ -6959,12 +7164,20 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9">
+        <v>44526</v>
+      </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>868183034788377</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="60"/>
       <c r="J44" s="1"/>
@@ -6995,12 +7208,20 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9">
+        <v>44526</v>
+      </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="D45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="39">
+        <v>868183035940613</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="60"/>
       <c r="J45" s="1"/>
@@ -7358,6 +7579,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7369,13 +7597,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7419,43 +7640,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7500,58 +7721,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -7576,23 +7797,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7642,7 +7863,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7699,7 +7920,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7756,7 +7977,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7785,7 +8006,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7814,7 +8035,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7843,7 +8064,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7872,7 +8093,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7903,7 +8124,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7932,7 +8153,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7961,7 +8182,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7990,7 +8211,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9221,13 +9442,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9239,6 +9453,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9282,43 +9503,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9363,58 +9584,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9439,23 +9660,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9481,7 +9702,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9512,7 +9733,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9541,7 +9762,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9570,7 +9791,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9599,7 +9820,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9628,7 +9849,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9657,7 +9878,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9688,7 +9909,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9717,7 +9938,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9746,7 +9967,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9775,7 +9996,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11006,13 +11227,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11024,6 +11238,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -12,22 +12,22 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="37" r:id="rId1"/>
-    <sheet name="ACT-01" sheetId="36" r:id="rId2"/>
+    <sheet name="ACT-01" sheetId="36" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="37" r:id="rId2"/>
     <sheet name="TG102LE" sheetId="35" r:id="rId3"/>
     <sheet name="TG102SE" sheetId="34" r:id="rId4"/>
     <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ACT-01'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ACT-01'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">'ACT-01'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'ACT-01'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="144">
   <si>
     <t>STT</t>
   </si>
@@ -448,6 +448,30 @@
   </si>
   <si>
     <t>TB bị cắt ngắn</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Không thuộc diên bảo hành</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng led mem</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn, hỏng MCU, module sim 868</t>
   </si>
 </sst>
 </file>
@@ -865,22 +889,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,6 +911,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,2024 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="17" style="20" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
-    <col min="10" max="10" width="53" style="20" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="58" style="20" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="20"/>
-    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="47"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="27"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="48"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C6" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="39">
-        <v>866192037793575</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="69"/>
-    </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C7" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="39">
-        <v>866192037816137</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="69"/>
-    </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C8" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="39">
-        <v>864811036952096</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="69"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C9" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="39">
-        <v>863586032865788</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="69"/>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C10" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="39">
-        <v>866192037780515</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="69"/>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C11" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="39">
-        <v>866192037788401</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="69"/>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="39">
-        <v>868345031040587</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="69"/>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="39">
-        <v>864811037219727</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="69"/>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="39">
-        <v>864811036966617</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="69"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="39">
-        <v>868926033920858</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="69"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="39">
-        <v>866192037755996</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="39">
-        <v>864811037212714</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="69"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="39">
-        <v>864811036952096</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="37">
-        <v>44526</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="39">
-        <v>863586032865788</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="49"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
-      </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="10">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
-      </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="49"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>21</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
-      </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>22</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="10">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>24</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>25</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="10">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="10">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
-      </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="10">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="10">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>29</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="10">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
-      </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>30</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="10">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
-      </c>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>31</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="10">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="10">
-        <f>SUM(V26:V36)</f>
-        <v>9</v>
-      </c>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>33</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="10">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>36</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="10">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>37</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>38</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>39</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>40</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>41</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>42</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="10">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="35">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="10">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>44</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>45</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>46</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>47</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>48</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>50</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
-      <c r="X55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X57"/>
-  <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -3266,43 +1273,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3347,58 +1354,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3423,23 +1430,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3485,7 +1492,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3540,7 +1547,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +1594,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3616,7 +1623,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3645,7 +1652,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3674,7 +1681,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3703,7 +1710,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3734,7 +1741,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3763,7 +1770,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3792,7 +1799,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3821,7 +1828,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5052,6 +3059,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5063,25 +3077,18 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B45"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5113,43 +3120,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5194,99 +3201,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="68" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,10 +3307,10 @@
         <v>44511</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E6" s="39">
-        <v>867717030424312</v>
+        <v>866192037793575</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
@@ -5311,42 +3318,42 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="50" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="72" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="66"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5359,45 +3366,53 @@
         <v>44511</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E7" s="39">
-        <v>868183034756531</v>
+        <v>866192037816137</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="40"/>
+        <v>118</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>123</v>
+      </c>
       <c r="M7" s="40" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="73"/>
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="69"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="66"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5410,10 +3425,10 @@
         <v>44511</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E8" s="39">
-        <v>868183033790739</v>
+        <v>864811036952096</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
@@ -5421,38 +3436,40 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K8" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>24</v>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="73"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="66"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5465,49 +3482,45 @@
         <v>44511</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E9" s="39">
-        <v>868183035856017</v>
+        <v>863586032865788</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50" t="s">
-        <v>102</v>
-      </c>
+      <c r="I9" s="50"/>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="10"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>36</v>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="73"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="66"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5520,51 +3533,53 @@
         <v>44511</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E10" s="39">
-        <v>868183034706411</v>
+        <v>866192037780515</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K10" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="4"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="73"/>
+      <c r="Q10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="69"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="66"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5577,431 +3592,313 @@
         <v>44511</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39">
-        <v>868183034629498</v>
-      </c>
-      <c r="F11" s="55"/>
+        <v>866192037788401</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K11" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="73"/>
+      <c r="Q11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="69"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="66"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C12" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E12" s="39">
-        <v>868183035879522</v>
-      </c>
-      <c r="F12" s="55"/>
+        <v>868345031040587</v>
+      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60" t="s">
-        <v>96</v>
-      </c>
+      <c r="I12" s="60"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="72" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="66"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C13" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C13" s="37"/>
       <c r="D13" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E13" s="39">
-        <v>867857039910570</v>
-      </c>
-      <c r="F13" s="55"/>
+        <v>864811037219727</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="73"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="66"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C14" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E14" s="39">
-        <v>868183034786116</v>
-      </c>
-      <c r="F14" s="55"/>
+        <v>864811036966617</v>
+      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>67</v>
-      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="73"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="66"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C15" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E15" s="39">
-        <v>868183038030883</v>
-      </c>
-      <c r="F15" s="55"/>
+        <v>868926033920858</v>
+      </c>
+      <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="66"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C16" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C16" s="37"/>
       <c r="D16" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E16" s="39">
-        <v>868183038608555</v>
-      </c>
-      <c r="F16" s="55"/>
+        <v>866192037755996</v>
+      </c>
+      <c r="F16" s="38"/>
       <c r="G16" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60" t="s">
-        <v>87</v>
-      </c>
+      <c r="I16" s="60"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="66"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C17" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C17" s="37"/>
       <c r="D17" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E17" s="39">
-        <v>868183033817532</v>
-      </c>
-      <c r="F17" s="55"/>
+        <v>864811037212714</v>
+      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="66"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="66"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C18" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E18" s="39">
-        <v>867717030615950</v>
-      </c>
-      <c r="F18" s="55"/>
+        <v>864811036952096</v>
+      </c>
+      <c r="F18" s="38"/>
       <c r="G18" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -6013,53 +3910,33 @@
         <v>14</v>
       </c>
       <c r="B19" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C19" s="37">
-        <v>44511</v>
-      </c>
+        <v>44526</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="38" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E19" s="39">
-        <v>868183033824017</v>
-      </c>
-      <c r="F19" s="55"/>
+        <v>863586032865788</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>67</v>
-      </c>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="68" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -6071,49 +3948,23 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C20" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="39">
-        <v>868183035948004</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="I20" s="60"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -6121,7 +3972,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -6129,49 +3980,23 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C21" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="39">
-        <v>868183038013764</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="I21" s="60"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -6187,49 +4012,23 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C22" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="39">
-        <v>868183034522321</v>
-      </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="I22" s="60"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="10"/>
-      <c r="O22" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -6237,7 +4036,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -6245,49 +4044,23 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C23" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="39">
-        <v>867717030416979</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="I23" s="60"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="10"/>
-      <c r="O23" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -6298,49 +4071,23 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C24" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="39">
-        <v>868183033867255</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60" t="s">
-        <v>78</v>
-      </c>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="10"/>
-      <c r="O24" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -6351,54 +4098,26 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C25" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="39">
-        <v>867717030524905</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="10"/>
-      <c r="O25" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="68" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6410,49 +4129,23 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C26" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="39">
-        <v>867717030422621</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="I26" s="60"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="10"/>
-      <c r="O26" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -6460,7 +4153,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -6468,49 +4161,23 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C27" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="39">
-        <v>868183033869939</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="M27" s="10"/>
       <c r="N27" s="10"/>
-      <c r="O27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -6526,49 +4193,23 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C28" s="37">
-        <v>44511</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="39">
-        <v>868183038090424</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60" t="s">
-        <v>85</v>
-      </c>
+      <c r="I28" s="60"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -6584,20 +4225,12 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="39">
-        <v>868183034546965</v>
-      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G29" s="38"/>
       <c r="H29" s="1"/>
       <c r="I29" s="60"/>
       <c r="J29" s="1"/>
@@ -6624,20 +4257,12 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="39">
-        <v>868183034626239</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="60"/>
       <c r="J30" s="1"/>
@@ -6664,20 +4289,12 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="39">
-        <v>868183038092636</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
       <c r="I31" s="60"/>
       <c r="J31" s="1"/>
@@ -6696,7 +4313,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6704,20 +4321,12 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="39">
-        <v>867717030615950</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="60"/>
       <c r="J32" s="1"/>
@@ -6736,7 +4345,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -6744,20 +4353,12 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="39">
-        <v>868183034687280</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="60"/>
       <c r="J33" s="1"/>
@@ -6784,20 +4385,12 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="39">
-        <v>868183038520123</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="60"/>
       <c r="J34" s="1"/>
@@ -6816,7 +4409,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -6824,20 +4417,12 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="39">
-        <v>868183034756531</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="60"/>
       <c r="J35" s="1"/>
@@ -6856,7 +4441,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6864,20 +4449,12 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="39">
-        <v>868183035856017</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
       <c r="I36" s="60"/>
       <c r="J36" s="1"/>
@@ -6904,20 +4481,12 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="39">
-        <v>868183033867255</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1"/>
       <c r="I37" s="60"/>
       <c r="J37" s="1"/>
@@ -6936,7 +4505,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6944,20 +4513,12 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="39">
-        <v>867717030506217</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="1"/>
       <c r="I38" s="60"/>
       <c r="J38" s="1"/>
@@ -6979,20 +4540,12 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="39">
-        <v>868183038007048</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="1"/>
       <c r="I39" s="60"/>
       <c r="J39" s="1"/>
@@ -7014,20 +4567,12 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="39">
-        <v>868183034703632</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="1"/>
       <c r="I40" s="60"/>
       <c r="J40" s="1"/>
@@ -7054,20 +4599,12 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="39">
-        <v>868183034636931</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="1"/>
       <c r="I41" s="60"/>
       <c r="J41" s="1"/>
@@ -7094,20 +4631,12 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="39">
-        <v>867717030430442</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="1"/>
       <c r="I42" s="60"/>
       <c r="J42" s="1"/>
@@ -7129,20 +4658,12 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="39">
-        <v>868183038030826</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="1"/>
       <c r="I43" s="60"/>
       <c r="J43" s="1"/>
@@ -7164,20 +4685,12 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="39">
-        <v>868183034788377</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="1"/>
       <c r="I44" s="60"/>
       <c r="J44" s="1"/>
@@ -7208,20 +4721,12 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="9">
-        <v>44526</v>
-      </c>
+      <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="39">
-        <v>868183035940613</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="1"/>
       <c r="I45" s="60"/>
       <c r="J45" s="1"/>
@@ -7353,7 +4858,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -7603,12 +5108,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7640,43 +5145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7721,99 +5226,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="72"/>
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7827,49 +5332,53 @@
         <v>44511</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>861694030648560</v>
+        <v>867717030424312</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="64"/>
-      <c r="I6" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="I6" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="72" t="s">
+      <c r="T6" s="66"/>
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="66"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7882,28 +5391,24 @@
         <v>44511</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>861694031746595</v>
+        <v>868183034756531</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="70"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
@@ -7916,15 +5421,15 @@
         <v>18</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="73"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -7937,10 +5442,10 @@
         <v>44511</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E8" s="39">
-        <v>863586034530992</v>
+        <v>868183033790739</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
@@ -7948,323 +5453,587 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" s="1">
-        <v>24000</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="10"/>
       <c r="O8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>115</v>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="73"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183035856017</v>
+      </c>
       <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="L9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="73"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034706411</v>
+      </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="50"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="K10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="73"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="66"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183034629498</v>
+      </c>
       <c r="F11" s="55"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="K11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="73"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183035879522</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>96</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="72" t="s">
+      <c r="T12" s="66"/>
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="66"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>867857039910570</v>
+      </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="73"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034786116</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="73"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="66"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183038030883</v>
+      </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="L15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868183038608555</v>
+      </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="60" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="K16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="66"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183033817532</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="L17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="66"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="66"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>867717030615950</v>
+      </c>
       <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="I18" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -8275,26 +6044,54 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868183033824017</v>
+      </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="38"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -8306,23 +6103,49 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="B20" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868183035948004</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="K20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -8330,7 +6153,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -8338,23 +6161,49 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868183038013764</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -8362,7 +6211,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -8370,23 +6219,49 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868183034522321</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -8394,7 +6269,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8402,23 +6277,49 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="39">
+        <v>867717030416979</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -8429,23 +6330,49 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868183033867255</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -8456,26 +6383,54 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="B25" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="39">
+        <v>867717030524905</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="67" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -8487,23 +6442,49 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="B26" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C26" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>867717030422621</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
+      <c r="I26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="M26" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -8519,23 +6500,49 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="B27" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C27" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>868183033869939</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
+      <c r="I27" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -8543,7 +6550,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -8551,23 +6558,49 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C28" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868183038090424</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="K28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -8575,7 +6608,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -8583,23 +6616,49 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9">
+        <v>44526</v>
+      </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183034546965</v>
+      </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="I29" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -8607,7 +6666,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -8615,23 +6674,47 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9">
+        <v>44526</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183034626239</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -8647,23 +6730,47 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>44526</v>
+      </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="39">
+        <v>868183038092636</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="1"/>
+      <c r="I31" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
+      <c r="L31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="41"/>
+      <c r="O31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
@@ -8671,7 +6778,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -8679,23 +6786,49 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9">
+        <v>44526</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="1"/>
+      <c r="D32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="39">
+        <v>867717030615950</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="L32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="O32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -8703,7 +6836,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -8711,23 +6844,49 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9">
+        <v>44526</v>
+      </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="39">
+        <v>868183034687280</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
+      <c r="I33" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="41"/>
+      <c r="O33" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
@@ -8743,17 +6902,33 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9">
+        <v>44526</v>
+      </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="39">
+        <v>868183038520123</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="I34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -8767,7 +6942,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -8775,18 +6950,30 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9">
+        <v>44526</v>
+      </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="39">
+        <v>868183034756531</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="60"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -8799,7 +6986,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8807,23 +6994,49 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9">
+        <v>44526</v>
+      </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="1"/>
+      <c r="D36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="39">
+        <v>868183035856017</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="L36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
+      <c r="O36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S36" s="4"/>
       <c r="T36" s="14"/>
       <c r="U36" s="4" t="s">
@@ -8831,7 +7044,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -8839,23 +7052,45 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9">
+        <v>44526</v>
+      </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="39">
+        <v>868183033867255</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="L37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S37" s="4"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
@@ -8863,7 +7098,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8871,23 +7106,45 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9">
+        <v>44526</v>
+      </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="39">
+        <v>867717030506217</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
+      <c r="O38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S38" s="4"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
@@ -8898,23 +7155,47 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9">
+        <v>44526</v>
+      </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="39">
+        <v>868183038007048</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="60" t="s">
+        <v>85</v>
+      </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
+      <c r="O39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -8925,23 +7206,47 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9">
+        <v>44526</v>
+      </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="39">
+        <v>868183034703632</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="L40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
+      <c r="O40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -8957,23 +7262,47 @@
       <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9">
+        <v>44526</v>
+      </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="39">
+        <v>868183034636931</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="1"/>
+      <c r="I41" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="10"/>
+      <c r="O41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="14"/>
       <c r="U41" s="18" t="s">
@@ -8981,7 +7310,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -8989,23 +7318,47 @@
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9">
+        <v>44526</v>
+      </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="D42" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="39">
+        <v>867717030430442</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="10"/>
+      <c r="O42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S42" s="4"/>
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
@@ -9016,15 +7369,25 @@
       <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9">
+        <v>44526</v>
+      </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="39">
+        <v>868183038030826</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="60"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -9043,23 +7406,49 @@
       <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9">
+        <v>44526</v>
+      </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="39">
+        <v>868183034788377</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S44" s="4"/>
       <c r="T44" s="14"/>
       <c r="U44" s="10" t="s">
@@ -9079,23 +7468,47 @@
       <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9">
+        <v>44526</v>
+      </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="D45" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="39">
+        <v>868183035940613</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="1"/>
+      <c r="I45" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="L45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="10"/>
+      <c r="O45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="S45" s="4"/>
       <c r="T45" s="14"/>
       <c r="U45" s="10" t="s">
@@ -9216,7 +7629,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -9460,6 +7873,1869 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="39">
+        <v>861694030648560</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="54"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="39">
+        <v>861694031746595</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44508</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44511</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="39">
+        <v>863586034530992</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="1">
+        <v>24000</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="54"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>4</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9503,43 +9779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -9584,58 +9860,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -9660,23 +9936,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9702,7 +9978,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9733,7 +10009,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9762,7 +10038,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9791,7 +10067,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9820,7 +10096,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9849,7 +10125,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9878,7 +10154,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9909,7 +10185,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9938,7 +10214,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9967,7 +10243,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9996,7 +10272,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11227,6 +11503,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11238,13 +11521,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -472,6 +472,18 @@
   </si>
   <si>
     <t>Thiết bị chập nguồn, hỏng MCU, module sim 868</t>
+  </si>
+  <si>
+    <t>203.162.121.016,01102</t>
+  </si>
+  <si>
+    <t>Thiết bị không thuộc diện bảo hành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Hạ FW thiết bị cũ</t>
   </si>
 </sst>
 </file>
@@ -3087,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3658,17 +3670,33 @@
       <c r="G12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>145</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
       <c r="U12" s="80" t="s">
@@ -3739,10 +3767,16 @@
         <v>65</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
+      <c r="K14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
@@ -3775,17 +3809,33 @@
       <c r="G15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>145</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
       <c r="U15" s="81"/>
@@ -3812,17 +3862,31 @@
       <c r="G16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="H16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>145</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
       <c r="U16" s="82"/>
@@ -3850,16 +3914,30 @@
         <v>65</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>147</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="69"/>
@@ -3972,7 +4050,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4441,7 +4519,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4473,7 +4551,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4505,7 +4583,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4623,7 +4701,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W41" s="14"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="36" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Hạ FW thiết bị cũ</t>
+  </si>
+  <si>
+    <t>Thiết bị không thuộc diên bảo hành</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1563,9 @@
       <c r="B8" s="36">
         <v>44526</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44531</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
@@ -1568,7 +1573,9 @@
         <v>72</v>
       </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="56"/>
       <c r="J8" s="1" t="s">
@@ -3087,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S19"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3647,7 +3654,9 @@
       <c r="B12" s="36">
         <v>44526</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="36">
+        <v>44531</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>71</v>
       </c>
@@ -3702,7 +3711,9 @@
       <c r="B13" s="36">
         <v>44526</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="36">
+        <v>44531</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>71</v>
       </c>
@@ -3722,13 +3733,25 @@
         <v>123</v>
       </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T13" s="65"/>
       <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
@@ -3743,7 +3766,9 @@
       <c r="B14" s="36">
         <v>44526</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="36">
+        <v>44531</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>71</v>
       </c>
@@ -3754,7 +3779,9 @@
       <c r="G14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>202010201533617</v>
+      </c>
       <c r="I14" s="48" t="s">
         <v>73</v>
       </c>
@@ -3765,13 +3792,25 @@
       <c r="L14" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="3"/>
+      <c r="O14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T14" s="65"/>
       <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
@@ -3786,7 +3825,9 @@
       <c r="B15" s="36">
         <v>44526</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>44531</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>71</v>
       </c>
@@ -3808,8 +3849,8 @@
         <v>117</v>
       </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39" t="s">
-        <v>145</v>
+      <c r="M15" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="39" t="s">
@@ -3839,7 +3880,9 @@
       <c r="B16" s="36">
         <v>44526</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="36">
+        <v>44531</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>71</v>
       </c>
@@ -3859,8 +3902,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="39" t="s">
-        <v>145</v>
+      <c r="M16" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="39" t="s">
@@ -3890,7 +3933,9 @@
       <c r="B17" s="36">
         <v>44526</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>44531</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>71</v>
       </c>
@@ -3907,9 +3952,9 @@
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="39"/>
+        <v>74</v>
+      </c>
+      <c r="L17" s="1"/>
       <c r="M17" s="39" t="s">
         <v>147</v>
       </c>
@@ -3939,7 +3984,9 @@
       <c r="B18" s="36">
         <v>44526</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="36">
+        <v>44531</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>71</v>
       </c>
@@ -3959,13 +4006,25 @@
         <v>119</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="15"/>
@@ -3978,7 +4037,9 @@
       <c r="B19" s="36">
         <v>44526</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="36">
+        <v>44531</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>71</v>
       </c>
@@ -3990,17 +4051,35 @@
         <v>65</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="56"/>
+      <c r="I19" s="56" t="s">
+        <v>78</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="3"/>
+      <c r="K19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T19" s="13"/>
       <c r="U19" s="64" t="s">
         <v>39</v>
@@ -4102,7 +4181,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4379,7 +4458,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4507,7 +4586,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4571,7 +4650,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5178,8 +5257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S45"/>
+    <sheetView showZeros="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6277,7 +6356,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6335,7 +6414,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6685,7 +6764,9 @@
       <c r="B29" s="8">
         <v>44526</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="36">
+        <v>44531</v>
+      </c>
       <c r="D29" s="37" t="s">
         <v>44</v>
       </c>
@@ -6732,7 +6813,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -6743,7 +6824,9 @@
       <c r="B30" s="8">
         <v>44526</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="36">
+        <v>44531</v>
+      </c>
       <c r="D30" s="37" t="s">
         <v>44</v>
       </c>
@@ -6799,7 +6882,9 @@
       <c r="B31" s="8">
         <v>44526</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="36">
+        <v>44531</v>
+      </c>
       <c r="D31" s="37" t="s">
         <v>44</v>
       </c>
@@ -6844,7 +6929,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6855,7 +6940,9 @@
       <c r="B32" s="8">
         <v>44526</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="36">
+        <v>44531</v>
+      </c>
       <c r="D32" s="37" t="s">
         <v>44</v>
       </c>
@@ -6913,7 +7000,9 @@
       <c r="B33" s="8">
         <v>44526</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="36">
+        <v>44531</v>
+      </c>
       <c r="D33" s="37" t="s">
         <v>44</v>
       </c>
@@ -6971,7 +7060,9 @@
       <c r="B34" s="8">
         <v>44526</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="36">
+        <v>44531</v>
+      </c>
       <c r="D34" s="37" t="s">
         <v>44</v>
       </c>
@@ -6995,12 +7086,22 @@
       <c r="L34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="9"/>
+      <c r="O34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="13"/>
       <c r="U34" s="3" t="s">
@@ -7019,7 +7120,9 @@
       <c r="B35" s="8">
         <v>44526</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="36">
+        <v>44531</v>
+      </c>
       <c r="D35" s="37" t="s">
         <v>44</v>
       </c>
@@ -7041,10 +7144,18 @@
         <v>105</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="9"/>
+      <c r="O35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="13"/>
       <c r="U35" s="3" t="s">
@@ -7063,7 +7174,9 @@
       <c r="B36" s="8">
         <v>44526</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="36">
+        <v>44531</v>
+      </c>
       <c r="D36" s="37" t="s">
         <v>44</v>
       </c>
@@ -7088,7 +7201,7 @@
         <v>79</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
@@ -7110,7 +7223,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -7121,7 +7234,9 @@
       <c r="B37" s="8">
         <v>44526</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="36">
+        <v>44531</v>
+      </c>
       <c r="D37" s="37" t="s">
         <v>44</v>
       </c>
@@ -7132,7 +7247,9 @@
       <c r="G37" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I37" s="56" t="s">
         <v>78</v>
       </c>
@@ -7142,11 +7259,11 @@
         <v>79</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>62</v>
@@ -7155,7 +7272,7 @@
         <v>19</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="13"/>
@@ -7164,7 +7281,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7175,7 +7292,9 @@
       <c r="B38" s="8">
         <v>44526</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="36">
+        <v>44531</v>
+      </c>
       <c r="D38" s="37" t="s">
         <v>44</v>
       </c>
@@ -7224,7 +7343,9 @@
       <c r="B39" s="8">
         <v>44526</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="36">
+        <v>44531</v>
+      </c>
       <c r="D39" s="37" t="s">
         <v>44</v>
       </c>
@@ -7275,7 +7396,9 @@
       <c r="B40" s="8">
         <v>44526</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="36">
+        <v>44531</v>
+      </c>
       <c r="D40" s="37" t="s">
         <v>44</v>
       </c>
@@ -7331,7 +7454,9 @@
       <c r="B41" s="8">
         <v>44526</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="36">
+        <v>44531</v>
+      </c>
       <c r="D41" s="37" t="s">
         <v>44</v>
       </c>
@@ -7376,7 +7501,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -7387,7 +7512,9 @@
       <c r="B42" s="8">
         <v>44526</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="36">
+        <v>44531</v>
+      </c>
       <c r="D42" s="37" t="s">
         <v>44</v>
       </c>
@@ -7438,7 +7565,9 @@
       <c r="B43" s="8">
         <v>44526</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="36">
+        <v>44531</v>
+      </c>
       <c r="D43" s="37" t="s">
         <v>44</v>
       </c>
@@ -7456,12 +7585,22 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="9"/>
+      <c r="O43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S43" s="3"/>
       <c r="T43" s="13"/>
       <c r="U43" s="13"/>
@@ -7475,7 +7614,9 @@
       <c r="B44" s="8">
         <v>44526</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="36">
+        <v>44531</v>
+      </c>
       <c r="D44" s="37" t="s">
         <v>44</v>
       </c>
@@ -7537,7 +7678,9 @@
       <c r="B45" s="8">
         <v>44526</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="36">
+        <v>44531</v>
+      </c>
       <c r="D45" s="37" t="s">
         <v>44</v>
       </c>
@@ -9812,7 +9955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="150">
   <si>
     <t>STT</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Thiết bị không thuộc diên bảo hành</t>
+  </si>
+  <si>
+    <t>DM</t>
   </si>
 </sst>
 </file>
@@ -892,22 +895,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,6 +917,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,7 +1247,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1276,43 +1279,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -1357,58 +1360,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1433,23 +1436,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,7 +1498,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1537,7 +1540,7 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
@@ -1550,7 +1553,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>44526</v>
       </c>
       <c r="C8" s="36">
-        <v>44531</v>
+        <v>44537</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
@@ -1584,11 +1587,11 @@
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
@@ -1597,11 +1600,11 @@
         <v>18</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1633,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1720,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1748,7 +1751,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1806,7 +1809,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1838,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2573,7 +2576,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -2605,7 +2608,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3066,6 +3069,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3077,13 +3087,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3127,43 +3130,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -3208,58 +3211,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3284,23 +3287,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,7 +3357,7 @@
         <v>68</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3415,7 +3418,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3472,7 +3475,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3523,7 +3526,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3696,7 +3699,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3753,7 +3756,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3867,7 +3870,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3920,7 +3923,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5229,6 +5232,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5240,13 +5250,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5290,43 +5293,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -5371,58 +5374,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5447,23 +5450,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5517,7 +5520,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5570,7 +5573,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5625,7 +5628,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5680,7 +5683,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5737,7 +5740,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5792,7 +5795,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5847,7 +5850,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5904,7 +5907,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5961,7 +5964,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6016,7 +6019,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6071,7 +6074,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8064,13 +8067,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8082,6 +8078,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8125,43 +8128,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -8206,58 +8209,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -8282,23 +8285,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8348,7 +8351,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8405,7 +8408,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8462,7 +8465,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8491,7 +8494,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8520,7 +8523,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8549,7 +8552,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8578,7 +8581,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8609,7 +8612,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8638,7 +8641,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8667,7 +8670,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8696,7 +8699,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9927,6 +9930,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9938,13 +9948,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9988,43 +9991,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10069,58 +10072,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10145,23 +10148,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10207,7 +10210,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10262,7 +10265,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10309,7 +10312,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10366,7 +10369,7 @@
         <v>68</v>
       </c>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10482,7 +10485,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10533,7 +10536,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10594,7 +10597,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10706,7 +10709,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10747,7 +10750,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13370,6 +13373,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13381,13 +13391,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="151">
   <si>
     <t>STT</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>DM</t>
+  </si>
+  <si>
+    <t>ID tb mới : 2111014</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,21 +935,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,7 +1250,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,43 +1282,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -1360,58 +1363,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1436,23 +1439,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +1501,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1553,7 +1556,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1579,7 +1582,9 @@
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="I8" s="56"/>
       <c r="J8" s="1" t="s">
         <v>135</v>
@@ -1604,7 +1609,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1638,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1691,7 +1696,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1725,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1751,7 +1756,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1809,7 +1814,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1838,7 +1843,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3069,13 +3074,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3087,6 +3085,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3130,43 +3135,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -3211,58 +3216,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3287,23 +3292,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,7 +3362,7 @@
         <v>68</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3418,7 +3423,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3475,7 +3480,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3531,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3585,7 +3590,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3699,7 +3704,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3756,7 +3761,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3870,7 +3875,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3923,7 +3928,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5232,13 +5237,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5250,6 +5248,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5293,43 +5298,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -5374,58 +5379,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5450,23 +5455,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5525,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5573,7 +5578,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5628,7 +5633,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5683,7 +5688,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5740,7 +5745,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5795,7 +5800,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5850,7 +5855,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5907,7 +5912,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5964,7 +5969,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6019,7 +6024,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6074,7 +6079,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8067,6 +8072,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8078,13 +8090,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8128,43 +8133,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -8209,58 +8214,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -8285,23 +8290,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8351,7 +8356,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8408,7 +8413,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8465,7 +8470,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8494,7 +8499,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8523,7 +8528,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8552,7 +8557,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8581,7 +8586,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8612,7 +8617,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8641,7 +8646,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8670,7 +8675,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8699,7 +8704,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9930,13 +9935,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9948,6 +9946,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9991,43 +9996,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10072,58 +10077,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10148,23 +10153,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10210,7 +10215,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10265,7 +10270,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10312,7 +10317,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10369,7 +10374,7 @@
         <v>68</v>
       </c>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10428,7 +10433,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10485,7 +10490,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10536,7 +10541,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10597,7 +10602,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10656,7 +10661,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10709,7 +10714,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10750,7 +10755,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13373,13 +13378,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13391,6 +13389,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="36" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="149">
   <si>
     <t>STT</t>
   </si>
@@ -444,9 +444,6 @@
     <t>TB lỗi nguồn</t>
   </si>
   <si>
-    <t>ĐM</t>
-  </si>
-  <si>
     <t>TB bị cắt ngắn</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>BG</t>
-  </si>
-  <si>
-    <t>Không thuộc diên bảo hành</t>
   </si>
   <si>
     <t>Thiết bị hỏng diode chống quá áp</t>
@@ -898,22 +892,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +914,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,43 +1276,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -1363,58 +1357,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1439,23 +1433,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,7 +1495,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1543,7 +1537,7 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
@@ -1556,7 +1550,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1583,11 +1577,11 @@
         <v>65</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I8" s="56"/>
       <c r="J8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -1596,7 +1590,7 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
@@ -1609,7 +1603,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1632,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1667,7 +1661,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1696,7 +1690,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1725,7 +1719,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1756,7 +1750,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1779,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1814,7 +1808,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1837,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3074,6 +3068,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3085,13 +3086,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3102,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M19"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3135,43 +3129,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -3216,58 +3210,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3292,23 +3286,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,7 +3356,7 @@
         <v>68</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3423,7 +3417,7 @@
         <v>68</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3480,7 +3474,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3531,7 +3525,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3643,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3681,7 @@
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="39" t="s">
@@ -3704,7 +3698,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3761,7 +3755,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3789,7 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L14" s="39" t="s">
         <v>119</v>
@@ -3820,7 +3814,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3858,7 +3852,7 @@
       </c>
       <c r="L15" s="39"/>
       <c r="M15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="39" t="s">
@@ -3875,7 +3869,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3905,13 +3899,13 @@
         <v>103</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="39"/>
       <c r="M16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="39" t="s">
@@ -3928,7 +3922,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3964,7 +3958,7 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="39" t="s">
@@ -5237,6 +5231,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5248,13 +5249,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5265,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:M45"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5298,43 +5292,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -5379,58 +5373,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5455,23 +5449,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5525,7 +5519,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5578,7 +5572,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5633,7 +5627,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5688,7 +5682,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5745,7 +5739,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5800,7 +5794,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5855,7 +5849,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5912,7 +5906,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5969,7 +5963,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6024,7 +6018,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6079,7 +6073,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6790,7 +6784,7 @@
         <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>100</v>
@@ -6850,7 +6844,7 @@
         <v>96</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="9" t="s">
@@ -6908,7 +6902,7 @@
         <v>85</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="9" t="s">
@@ -6962,10 +6956,10 @@
         <v>65</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>108</v>
@@ -7026,7 +7020,7 @@
         <v>96</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>97</v>
@@ -7086,7 +7080,7 @@
         <v>73</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>84</v>
@@ -7209,7 +7203,7 @@
         <v>79</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1" t="s">
@@ -7267,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
@@ -7422,7 +7416,7 @@
         <v>86</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="9" t="s">
@@ -7480,7 +7474,7 @@
         <v>86</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="9" t="s">
@@ -7589,7 +7583,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="56"/>
       <c r="J43" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -7704,7 +7698,7 @@
         <v>73</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="9" t="s">
@@ -8072,13 +8066,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8090,6 +8077,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8101,7 +8095,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+      <selection activeCell="B6" sqref="B6:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8133,43 +8127,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="53"/>
@@ -8214,58 +8208,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -8290,23 +8284,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,7 +8350,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8413,7 +8407,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8470,7 +8464,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8499,7 +8493,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8528,7 +8522,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8557,7 +8551,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8586,7 +8580,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8617,7 +8611,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8646,7 +8640,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8675,7 +8669,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8704,7 +8698,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9935,6 +9929,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9946,13 +9947,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9963,8 +9957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9996,43 +9990,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10077,58 +10071,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -10153,23 +10147,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10215,7 +10209,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10257,7 +10251,7 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>62</v>
@@ -10270,7 +10264,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10283,7 +10277,9 @@
       <c r="B8" s="36">
         <v>44526</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36">
+        <v>44537</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
@@ -10291,20 +10287,24 @@
         <v>72</v>
       </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="I8" s="56"/>
       <c r="J8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="39" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
@@ -10313,11 +10313,11 @@
         <v>18</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>68</v>
       </c>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>68</v>
       </c>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10602,7 +10602,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>68</v>
       </c>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10674,7 +10674,9 @@
       <c r="B15" s="36">
         <v>44526</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>44531</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>71</v>
       </c>
@@ -10697,7 +10699,7 @@
       </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="39" t="s">
@@ -10714,7 +10716,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10727,7 +10729,9 @@
       <c r="B16" s="36">
         <v>44526</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="36">
+        <v>44531</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>71</v>
       </c>
@@ -10747,15 +10751,27 @@
         <v>123</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="M16" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10768,7 +10784,9 @@
       <c r="B17" s="36">
         <v>44526</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="36">
+        <v>44531</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>71</v>
       </c>
@@ -10779,24 +10797,38 @@
       <c r="G17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>202010201533617</v>
+      </c>
       <c r="I17" s="48" t="s">
         <v>73</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L17" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="41"/>
       <c r="V17" s="14"/>
@@ -10809,7 +10841,9 @@
       <c r="B18" s="36">
         <v>44526</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="36">
+        <v>44531</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>71</v>
       </c>
@@ -10831,8 +10865,8 @@
         <v>117</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="39" t="s">
-        <v>145</v>
+      <c r="M18" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="39" t="s">
@@ -10860,7 +10894,9 @@
       <c r="B19" s="36">
         <v>44526</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="36">
+        <v>44531</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>71</v>
       </c>
@@ -10875,13 +10911,13 @@
         <v>103</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="39"/>
-      <c r="M19" s="39" t="s">
-        <v>145</v>
+      <c r="M19" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="39" t="s">
@@ -10913,7 +10949,9 @@
       <c r="B20" s="36">
         <v>44526</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="36">
+        <v>44531</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>71</v>
       </c>
@@ -10930,11 +10968,11 @@
       </c>
       <c r="J20" s="39"/>
       <c r="K20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="39"/>
+        <v>74</v>
+      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="39" t="s">
@@ -10967,7 +11005,9 @@
       <c r="B21" s="36">
         <v>44526</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="36">
+        <v>44531</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>71</v>
       </c>
@@ -10987,13 +11027,25 @@
         <v>119</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="39" t="s">
+        <v>122</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
         <v>49</v>
@@ -11011,7 +11063,9 @@
       <c r="B22" s="36">
         <v>44526</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="36">
+        <v>44531</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>71</v>
       </c>
@@ -11023,24 +11077,42 @@
         <v>65</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="56"/>
+      <c r="I22" s="56" t="s">
+        <v>78</v>
+      </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="3"/>
+      <c r="K22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -11435,7 +11507,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -11553,7 +11625,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -11787,7 +11859,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11905,7 +11977,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12069,7 +12141,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -12127,7 +12199,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -12373,7 +12445,9 @@
       <c r="B46" s="8">
         <v>44526</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="36">
+        <v>44531</v>
+      </c>
       <c r="D46" s="37" t="s">
         <v>44</v>
       </c>
@@ -12389,7 +12463,7 @@
         <v>73</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>100</v>
@@ -12438,7 +12512,9 @@
       <c r="B47" s="8">
         <v>44526</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="36">
+        <v>44531</v>
+      </c>
       <c r="D47" s="37" t="s">
         <v>44</v>
       </c>
@@ -12454,7 +12530,7 @@
         <v>96</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="9" t="s">
@@ -12501,7 +12577,9 @@
       <c r="B48" s="8">
         <v>44526</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="36">
+        <v>44531</v>
+      </c>
       <c r="D48" s="37" t="s">
         <v>44</v>
       </c>
@@ -12517,7 +12595,7 @@
         <v>85</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="9" t="s">
@@ -12567,7 +12645,9 @@
       <c r="B49" s="8">
         <v>44526</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="36">
+        <v>44531</v>
+      </c>
       <c r="D49" s="37" t="s">
         <v>44</v>
       </c>
@@ -12579,10 +12659,10 @@
         <v>65</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>108</v>
@@ -12621,7 +12701,9 @@
       <c r="B50" s="8">
         <v>44526</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="36">
+        <v>44531</v>
+      </c>
       <c r="D50" s="37" t="s">
         <v>44</v>
       </c>
@@ -12637,7 +12719,7 @@
         <v>96</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>97</v>
@@ -12675,7 +12757,9 @@
       <c r="B51" s="8">
         <v>44526</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="36">
+        <v>44531</v>
+      </c>
       <c r="D51" s="37" t="s">
         <v>44</v>
       </c>
@@ -12691,7 +12775,7 @@
         <v>73</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>84</v>
@@ -12699,12 +12783,22 @@
       <c r="L51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="9"/>
+      <c r="O51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="S51" s="3"/>
       <c r="T51" s="34"/>
       <c r="U51" s="44"/>
@@ -12719,7 +12813,9 @@
       <c r="B52" s="8">
         <v>44526</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="36">
+        <v>44531</v>
+      </c>
       <c r="D52" s="37" t="s">
         <v>44</v>
       </c>
@@ -12741,10 +12837,18 @@
         <v>105</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="9"/>
+      <c r="O52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="S52" s="3"/>
       <c r="T52" s="34"/>
       <c r="U52" s="44"/>
@@ -12759,7 +12863,9 @@
       <c r="B53" s="8">
         <v>44526</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="36">
+        <v>44531</v>
+      </c>
       <c r="D53" s="37" t="s">
         <v>44</v>
       </c>
@@ -12784,7 +12890,7 @@
         <v>79</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
@@ -12813,7 +12919,9 @@
       <c r="B54" s="8">
         <v>44526</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="36">
+        <v>44531</v>
+      </c>
       <c r="D54" s="37" t="s">
         <v>44</v>
       </c>
@@ -12824,7 +12932,9 @@
       <c r="G54" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I54" s="56" t="s">
         <v>78</v>
       </c>
@@ -12834,11 +12944,11 @@
         <v>79</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>62</v>
@@ -12847,7 +12957,7 @@
         <v>19</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="34"/>
@@ -12863,7 +12973,9 @@
       <c r="B55" s="8">
         <v>44526</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="36">
+        <v>44531</v>
+      </c>
       <c r="D55" s="37" t="s">
         <v>44</v>
       </c>
@@ -12913,7 +13025,9 @@
       <c r="B56" s="8">
         <v>44526</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="36">
+        <v>44531</v>
+      </c>
       <c r="D56" s="37" t="s">
         <v>44</v>
       </c>
@@ -12963,7 +13077,9 @@
       <c r="B57" s="8">
         <v>44526</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="36">
+        <v>44531</v>
+      </c>
       <c r="D57" s="37" t="s">
         <v>44</v>
       </c>
@@ -12979,7 +13095,7 @@
         <v>86</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="9" t="s">
@@ -13013,7 +13129,9 @@
       <c r="B58" s="8">
         <v>44526</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="36">
+        <v>44531</v>
+      </c>
       <c r="D58" s="37" t="s">
         <v>44</v>
       </c>
@@ -13029,7 +13147,7 @@
         <v>86</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="9" t="s">
@@ -13060,7 +13178,9 @@
       <c r="B59" s="8">
         <v>44526</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="36">
+        <v>44531</v>
+      </c>
       <c r="D59" s="37" t="s">
         <v>44</v>
       </c>
@@ -13107,7 +13227,9 @@
       <c r="B60" s="8">
         <v>44526</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="36">
+        <v>44531</v>
+      </c>
       <c r="D60" s="37" t="s">
         <v>44</v>
       </c>
@@ -13121,16 +13243,26 @@
       <c r="H60" s="1"/>
       <c r="I60" s="56"/>
       <c r="J60" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="9"/>
+      <c r="O60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S60" s="3"/>
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13140,7 +13272,9 @@
       <c r="B61" s="8">
         <v>44526</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="36">
+        <v>44531</v>
+      </c>
       <c r="D61" s="37" t="s">
         <v>44</v>
       </c>
@@ -13189,7 +13323,9 @@
       <c r="B62" s="8">
         <v>44526</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="36">
+        <v>44531</v>
+      </c>
       <c r="D62" s="37" t="s">
         <v>44</v>
       </c>
@@ -13205,7 +13341,7 @@
         <v>73</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="9" t="s">
@@ -13378,6 +13514,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13389,13 +13532,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
